--- a/biology/Botanique/Jardin_botanique_du_Val_Rahmeh/Jardin_botanique_du_Val_Rahmeh.xlsx
+++ b/biology/Botanique/Jardin_botanique_du_Val_Rahmeh/Jardin_botanique_du_Val_Rahmeh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique du Val Rahmeh est situé à Menton (Alpes-Maritimes). D'une superficie de 15 000 m2, il fait partie du Muséum national d'histoire naturelle (MNHN). Il se situe à 50 mètres d'altitude moyenne, en contrebas du boulevard Garavan, et voisine avec le parc départemental du Pian, à l'Est. La mer Méditerranée est à 250 mètres au sud.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Val Rahmeh est à l'origine une petite propriété avec quelques terres et une villa de style italo-provençal bâtie par la famille mentonnaise des De Monléon au XIXe siècle. 
 En 1905, la propriété est rachetée par Sir Percy Radcliffe, ancien gouverneur de Malte, dont l'épouse s'appelait Rahmeh (« charitable » en arabe). Le couple s'emploie à agrandir la villa mais surtout le jardin, en rachetant des parcelles voisines. Ils gardent quelques-uns des oliviers plantés sur les terres acquises (aujourd'hui arbres quadricentenaires), mais font surtout planter de nombreuses espèces de climat méditerranéen et subtropical, notamment les Dattiers des Canaries Phoenix canariensis qui bordent l'allée principale. 
@@ -546,7 +560,9 @@
           <t>Plantations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin possède une collection de plantes exceptionnelles pour sa latitude. Menton, et spécialement la baie de Garavan, possède un climat particulièrement doux et ensoleillé même en hiver, et une humidité régulière, offrant un havre pour des plantes subtropicales et tropicales qui ne pourraient pas pousser ailleurs en France. Les collections alternent plantes de climat méditerranéen (Californie, Chili, Afrique du Sud, Sud-ouest australien et Bassin méditerranéen bien-sûr) et de climats subtropical et tropical (Antilles, Mexique, Brésil, Inde, Chine, Japon, Australie ou encore Nouvelle-Zélande) dans diverses zones correspondant à des exigences écologiques spécifiques (tropiques humides, tropiques secs, bassin d'eau...). On trouve ainsi de nombreuses espèces dites succulentes (cactus, agaves, aloès...), des daturas et autres plantes magiques, des oliviers quadricentenaires, des Palmiers (Arécacées) et de multiples fougères arborescentes (Cyathéacées). Aux côtés de la collection d'agrumes, un potager regroupe des espèces comestibles du monde entier (litchi, goyave, poire-melon, taro...) et un bassin accueille des Victoria cruziana (un nénuphar géant dont les feuilles peuvent dépasser les 2 mètres de diamètre). 
 Il comprend des spécimens de plusieurs plantes éteintes dans leur milieu naturel, en particulier le Sophora toromiro, originaire de l'île de Pâques.
@@ -578,7 +594,9 @@
           <t>Tourisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Proche du bord de mer, le jardin botanique du Val Rahmeh est aussi une destination touristique. Ouvert tous les jours sauf le mardi, il accueille quelque 15 000 visiteurs par an. Des visites guidées, réalisées par les jardiniers, sont proposées. L'établissement accueille parfois des expositions, dans le jardin comme dans la villa. 
 </t>
